--- a/biology/Médecine/Tositumomab/Tositumomab.xlsx
+++ b/biology/Médecine/Tositumomab/Tositumomab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tositumomab est anticorps monoclonal murin IgG2a anti‑CD20 conjugué à l'iode 131[1]. L'action thérapeutique résulte de la capacité de ciblage de l'anticorps monoclonal associée à l'effet antitumoral des radiations dues au radionucléide, essentiellement par émission de particules α[2]. Il est ainsi commercialisé sous le nom de Bexxar. 
+Le tositumomab est anticorps monoclonal murin IgG2a anti‑CD20 conjugué à l'iode 131. L'action thérapeutique résulte de la capacité de ciblage de l'anticorps monoclonal associée à l'effet antitumoral des radiations dues au radionucléide, essentiellement par émission de particules α. Il est ainsi commercialisé sous le nom de Bexxar. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tositumomab est indiqué dans le traitement de patients atteints de lymphomes non-hodgkiniens réfractaires aux autres thérapeutiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tositumomab est indiqué dans le traitement de patients atteints de lymphomes non-hodgkiniens réfractaires aux autres thérapeutiques.
 </t>
         </is>
       </c>
